--- a/dir_Mes_referencia.xlsx
+++ b/dir_Mes_referencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexander_2019\Phyton\Base_datos\DANE\Encuesta de Micronegocios - 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexander_2019\Phyton\Base_datos\DANE\Encuesta de Micronegocios - 2023\Directorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02E5E35-5724-4111-A72C-4E6C47E207DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2B20A6-8D14-488A-B8B2-818E60E06B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21D9B7C5-D5F1-4C17-AD76-F2BA48931FF2}"/>
   </bookViews>
@@ -35,12 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>AREA</t>
-  </si>
-  <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
     <t>ENERO</t>
   </si>
   <si>
@@ -75,6 +69,12 @@
   </si>
   <si>
     <t>DICIEMBRE</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Categoría</t>
   </si>
 </sst>
 </file>
@@ -546,8 +546,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -925,9 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77997886-12EA-47C2-AF4E-4559AD86DA82}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -935,11 +936,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -947,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -955,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -963,7 +964,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -971,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -979,7 +980,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -987,7 +988,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -995,7 +996,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1003,7 +1004,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1011,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1019,7 +1020,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1027,7 +1028,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1035,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
